--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Pspn</t>
+  </si>
+  <si>
+    <t>Gfra1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pspn</t>
-  </si>
-  <si>
-    <t>Gfra1</t>
   </si>
 </sst>
 </file>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H2">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I2">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J2">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>15.933008</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N2">
-        <v>47.799024</v>
+        <v>0.119956</v>
       </c>
       <c r="O2">
-        <v>0.7524552897049799</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P2">
-        <v>0.7524552897049799</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q2">
-        <v>16.049414556448</v>
+        <v>0.008444089364888888</v>
       </c>
       <c r="R2">
-        <v>144.444731008032</v>
+        <v>0.07599680428399999</v>
       </c>
       <c r="S2">
-        <v>0.4421436601812345</v>
+        <v>0.0003144857983238921</v>
       </c>
       <c r="T2">
-        <v>0.4421436601812345</v>
+        <v>0.0003144857983238919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.007306</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H3">
-        <v>3.021918</v>
+        <v>0.633539</v>
       </c>
       <c r="I3">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J3">
-        <v>0.5876012385461317</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,42 +614,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.241682666666667</v>
+        <v>15.933008</v>
       </c>
       <c r="N3">
-        <v>15.725048</v>
+        <v>47.799024</v>
       </c>
       <c r="O3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="P3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="Q3">
-        <v>5.279978400229334</v>
+        <v>3.364727318437333</v>
       </c>
       <c r="R3">
-        <v>47.519805602064</v>
+        <v>30.282545865936</v>
       </c>
       <c r="S3">
-        <v>0.1454575783648972</v>
+        <v>0.1253135668223588</v>
       </c>
       <c r="T3">
-        <v>0.1454575783648972</v>
+        <v>0.1253135668223588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3383276666666666</v>
+        <v>0.2111796666666667</v>
       </c>
       <c r="H4">
-        <v>1.014983</v>
+        <v>0.633539</v>
       </c>
       <c r="I4">
-        <v>0.1973598449406199</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="J4">
-        <v>0.1973598449406199</v>
+        <v>0.1733132136419605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.933008</v>
+        <v>6.062935333333333</v>
       </c>
       <c r="N4">
-        <v>47.799024</v>
+        <v>18.188806</v>
       </c>
       <c r="O4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="P4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="Q4">
-        <v>5.390577419621334</v>
+        <v>1.280368662714889</v>
       </c>
       <c r="R4">
-        <v>48.515196776592</v>
+        <v>11.523317964434</v>
       </c>
       <c r="S4">
-        <v>0.1485044593009241</v>
+        <v>0.04768516102127777</v>
       </c>
       <c r="T4">
-        <v>0.1485044593009241</v>
+        <v>0.04768516102127777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,93 +705,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.007306</v>
+      </c>
+      <c r="H5">
+        <v>3.021918</v>
+      </c>
+      <c r="I5">
+        <v>0.8266867863580396</v>
+      </c>
+      <c r="J5">
+        <v>0.8266867863580396</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.3383276666666666</v>
-      </c>
-      <c r="H5">
-        <v>1.014983</v>
-      </c>
-      <c r="I5">
-        <v>0.1973598449406199</v>
-      </c>
-      <c r="J5">
-        <v>0.1973598449406199</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>5.241682666666667</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N5">
-        <v>15.725048</v>
+        <v>0.119956</v>
       </c>
       <c r="O5">
-        <v>0.2475447102950201</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P5">
-        <v>0.2475447102950201</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q5">
-        <v>1.773406266020444</v>
+        <v>0.04027746617866666</v>
       </c>
       <c r="R5">
-        <v>15.960656394184</v>
+        <v>0.362497195608</v>
       </c>
       <c r="S5">
-        <v>0.04885538563969586</v>
+        <v>0.001500065970207579</v>
       </c>
       <c r="T5">
-        <v>0.04885538563969586</v>
+        <v>0.001500065970207579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3686343333333333</v>
+        <v>1.007306</v>
       </c>
       <c r="H6">
-        <v>1.105903</v>
+        <v>3.021918</v>
       </c>
       <c r="I6">
-        <v>0.2150389165132484</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J6">
-        <v>0.2150389165132484</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,54 +806,54 @@
         <v>47.799024</v>
       </c>
       <c r="O6">
-        <v>0.7524552897049799</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="P6">
-        <v>0.7524552897049799</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="Q6">
-        <v>5.873453782074667</v>
+        <v>16.049414556448</v>
       </c>
       <c r="R6">
-        <v>52.861084038672</v>
+        <v>144.444731008032</v>
       </c>
       <c r="S6">
-        <v>0.1618071702228213</v>
+        <v>0.5977332464531607</v>
       </c>
       <c r="T6">
-        <v>0.1618071702228213</v>
+        <v>0.5977332464531607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3686343333333333</v>
+        <v>1.007306</v>
       </c>
       <c r="H7">
-        <v>1.105903</v>
+        <v>3.021918</v>
       </c>
       <c r="I7">
-        <v>0.2150389165132484</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="J7">
-        <v>0.2150389165132484</v>
+        <v>0.8266867863580396</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.241682666666667</v>
+        <v>6.062935333333333</v>
       </c>
       <c r="N7">
-        <v>15.725048</v>
+        <v>18.188806</v>
       </c>
       <c r="O7">
-        <v>0.2475447102950201</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="P7">
-        <v>0.2475447102950201</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="Q7">
-        <v>1.932264195371556</v>
+        <v>6.107231138878666</v>
       </c>
       <c r="R7">
-        <v>17.390377758344</v>
+        <v>54.96508024990801</v>
       </c>
       <c r="S7">
-        <v>0.0532317462904271</v>
+        <v>0.2274534739346713</v>
       </c>
       <c r="T7">
-        <v>0.0532317462904271</v>
+        <v>0.2274534739346713</v>
       </c>
     </row>
   </sheetData>
